--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-07_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-07_end.xlsx
@@ -524,7 +524,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Chernobog Warehouse 12:40 AM
+    <t xml:space="preserve">Chernobog Warehouse 12:40 A.M.
 </t>
   </si>
   <si>
@@ -532,7 +532,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  If we stay on this path, we’ll reach the central district.
+    <t xml:space="preserve">[name="Amiya"]  If we stay on this path, we'll reach the central district.
 </t>
   </si>
   <si>
@@ -556,19 +556,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Um, I’m asking you and the medic operators to take care of the Reunion people. They may have important information.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  And we’ve picked up Madame Ch'en’s trail here...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Bloodstains. She’s hurt.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  There’s a trail of blood here, but it stops over there. She got her bleeding under control.
+    <t xml:space="preserve">[name="Amiya"]  Um, I'm asking you and the medic operators to take care of the Reunion people. They may have important information.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  And we've picked up Madame Ch'en's trail here...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Bloodstains. She's hurt.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  There's a trail of blood here, but it stops over there. She got her bleeding under control.
 </t>
   </si>
   <si>
@@ -576,11 +576,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  ...Hold on, Madame Ch'en. We’re coming...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="We’re doing this again?;......;Feels like déjà vu.", values="1;2;3")]
+    <t xml:space="preserve">[name="Amiya"]  ...Hold on, Madame Ch'en. We're coming...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="We're doing this again?;......;Feels like déjà vu.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -592,7 +592,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  This time, it’s totally different.
+    <t xml:space="preserve">[name="Amiya"]  This time, it's totally different.
 </t>
   </si>
   <si>
@@ -600,7 +600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  But here, we’re already...
+    <t xml:space="preserve">[name="Amiya"]  But here, we're already...
 </t>
   </si>
   <si>
@@ -608,7 +608,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Operator"]  ...Where did she come from? We haven’t found their hideout...
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  ...Where did she come from? We haven't found their hideout...
 </t>
   </si>
   <si>
@@ -624,19 +624,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  We’re a neutral group researching the Infected! Ma’am,  we’re here to help you!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  We mean you no harm, you’re a regular Infected—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  Infected? Pfah! I’m Ursus!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  You want to help the Infected...?! Hah, bullshit... Don’t you know what you Infected have done to us?
+    <t xml:space="preserve">[name="Amiya"]  We're a neutral group researching the Infected! Ma'am,  we're here to help you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  We mean you no harm, you're a regular Infected—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Infected? Pfah! I'm Ursus!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  You want to help the Infected...?! Hah, bullshit... Don't you know what you Infected have done to us?
 </t>
   </si>
   <si>
@@ -644,19 +644,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Ma’am, we’ll keep our distance if you feel unsafe. We’ll stay twenty meters back.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  No, no, I’m Infected too. So I’m not supposed to talk to you like that, right?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  You’ll save the Infected? Ahaha, hahaha... All Infected should all just die!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  I should die too. I should die too! If there were no Infected, I wouldn’t have gotten Infected!
+    <t xml:space="preserve">[name="Amiya"]  Ma'am, we'll keep our distance if you feel unsafe. We'll stay twenty meters back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  No, no, I'm Infected too. So I'm not supposed to talk to you like that, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  You'll save the Infected? Ahaha, hahaha... All Infected should all just die!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  I should die too. I should die too! If there were no Infected, I wouldn't have gotten Infected!
 </t>
   </si>
   <si>
@@ -676,11 +676,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  (Let her vent. All the painful memories she’s built up over the last month are stabbing into her consciousness.)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  (It’s time she... faces them. This is a chance for her to pull them all out.)
+    <t xml:space="preserve">[name="Amiya"]  (Let her vent. All the painful memories she's built up over the last month are stabbing into her consciousness.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  (It's time she... faces them. This is a chance for her to pull them all out.)
 </t>
   </si>
   <si>
@@ -700,7 +700,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  But we weren’t Infected before.
+    <t xml:space="preserve">[name="Ursus Infected"]  But we weren't Infected before.
 </t>
   </si>
   <si>
@@ -708,7 +708,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  I don’t even know how many starved or froze to death...
+    <t xml:space="preserve">[name="Ursus Infected"]  I don't even know how many starved or froze to death...
 </t>
   </si>
   <si>
@@ -724,11 +724,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Trust us... You don’t have to take us to the other patients. We’ll leave you what you need for critical care. And then we’re gone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  I don’t trust you.
+    <t xml:space="preserve">[name="Amiya"]  Trust us... You don't have to take us to the other patients. We'll leave you what you need for critical care. And then we're gone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  I don't trust you.
 </t>
   </si>
   <si>
@@ -736,11 +736,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  If it really was them, we’d be dead already.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  It’s you...!
+    <t xml:space="preserve">[name="???"]  If it really was them, we'd be dead already.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  It's you...!
 </t>
   </si>
   <si>
@@ -748,7 +748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Dr. Kal’tsit...?!
+    <t xml:space="preserve">[name="Amiya"]  Dr. Kal'tsit...?!
 </t>
   </si>
   <si>
@@ -760,7 +760,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  It’s been a while, Amiya, Dr. Kal'tsit.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  It's been a while, Amiya, Dr. Kal'tsit.
 </t>
   </si>
   <si>
